--- a/biology/Médecine/Centre_hospitalier_universitaire_d'Helsinki/Centre_hospitalier_universitaire_d'Helsinki.xlsx
+++ b/biology/Médecine/Centre_hospitalier_universitaire_d'Helsinki/Centre_hospitalier_universitaire_d'Helsinki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_d%27Helsinki</t>
+          <t>Centre_hospitalier_universitaire_d'Helsinki</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hôpital central universitaire d'Helsinki (HUCH) (en finnois : Helsingin seudun yliopistollinen keskussairaala, en suédois : Helsingfors universitets centralsjukhus) est le plus grand Centre hospitalier universitaire de Finlande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_d%27Helsinki</t>
+          <t>Centre_hospitalier_universitaire_d'Helsinki</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CHU comprend 17 hôpitaux à Helsinki, Espoo, Vantaa, Kerava, Kirkkonummi et Kauniainen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CHU comprend 17 hôpitaux à Helsinki, Espoo, Vantaa, Kerava, Kirkkonummi et Kauniainen.
 Il traite de toutes les spécialités médicales majeures.
 Il est géré par le HUS jusqu'au 1er janvier 2023.
-À partir du 1er janvier 2023, il sera géré par le groupe HUS[2],[3].
+À partir du 1er janvier 2023, il sera géré par le groupe HUS,.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_d%27Helsinki</t>
+          <t>Centre_hospitalier_universitaire_d'Helsinki</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Hôpitaux du HUCH</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hôpital d'Aurora
 Hôpital d'Herttoniemi
